--- a/Data Collection/Authors/Katja Gentinetta/articles_Gentinetta_Jan_1.xlsx
+++ b/Data Collection/Authors/Katja Gentinetta/articles_Gentinetta_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Katja Gentinetta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_B0DAFEC87E816A685B86F27D2BB683E27F28DD4C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FE1A251-1C22-4B15-BF77-9C8A6F25A887}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -25,18 +31,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -55,12 +55,6 @@
     <t>Inside Paradeplatz</t>
   </si>
   <si>
-    <t>9 Jan 2021</t>
-  </si>
-  <si>
-    <t>2 Jan 2021</t>
-  </si>
-  <si>
     <t>... Ausruck kommen, könnten Firmen gezielt Frauen ansprechen und so deren Anteil in der Belegschaft rasch erhöhen. Katja Gentinetta 09.01.2021, 12.45 Uhr.</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>https://insideparadeplatz.ch/2021/01/02/willkommen-im-jahr-der-verantwortungslosigkeit/</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Meinung Kleine Massnahme, grosse Wirkung: So erreichen wir Geschlechtergleichstellung Mit flexiblen Arbeitsbedingungen, die auch in Stellenausschreibungen zum Ausruck kommen, könnten Firmen gezielt Frauen ansprechen und so deren Anteil in der Belegschaft rasch erhöhen.
@@ -102,12 +93,374 @@
 Das Bargeld auf den Konti der Privatkunden schmilzt angesichts einer inflationären Praxis, die unterscheidet zwischen offiziellen (Seco-)Zahlen und der realen Neuinflation, die höher ist.
 Die Parteien sind es auch, sind sie doch mitten in der Krise sanft entschlafen.</t>
   </si>
+  <si>
+    <t>Der Kapitalismus braucht ein Update</t>
+  </si>
+  <si>
+    <t>... darum gehen kann, dass Firmen profitabel sind, während gesellschaftliche Probleme allein am Staat hängenbleiben. Katja Gentinetta 23.01.2021, 12.45 Uhr.</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/meinungen/der-kapitalismus-braucht-ein-update-ld.1598032</t>
+  </si>
+  <si>
+    <t>Kolumne Der Kapitalismus braucht ein Update In der Pandemie zeigt sich klar, dass es in der Wirtschaft nicht darum gehen kann, dass Firmen profitabel sind, während gesellschaftliche Probleme allein am Staat hängenbleiben.
+Wirtschaft gegen Gesundheit auszuspielen funktioniert nicht.
+KeystoneUnd dann kam Corona.
+Vor ziemlich genau einem Jahr berichtete ich an dieser Stelle von dem damals noch in Davos und physisch stattfindenden WEF – einem Anlass, den man sich heute nur noch als «Superspreader-Event» vorstellen kann.</t>
+  </si>
+  <si>
+    <t>50 Jahre Frauenstimmrecht - 13 engagierte Frauen über das Jubiläum und was sie sich für die Zukunft wünschen</t>
+  </si>
+  <si>
+    <t>Aargauer Zeitung</t>
+  </si>
+  <si>
+    <t>... Frauen gefragt, was ihnen das hart erkämpfte Jubiläum bedeutet. Anna Miller und Katja Fischer De Santi 15.01.2021, 20.00 Uhr ... Katja Gentinetta (52) ...</t>
+  </si>
+  <si>
+    <t>https://www.aargauerzeitung.ch/leben/13-engagierte-frauen-uber-das-jubilaum-und-was-sie-sich-fur-die-zukunft-wunschen-ld.2085949</t>
+  </si>
+  <si>
+    <t>50 Jahre Frauenstimmrecht 13 engagierte Frauen über das Jubiläum und was sie sich für die Zukunft wünschen Vor 50 Jahren gestanden die Schweizer Männer ihren Frauen das Stimmrecht zu.
+Wir haben 13 engagierte Frauen gefragt, was ihnen das Jubiläum bedeutet und was sie sich für die Zukunft wünschen.
+Für fast alles, ausser zum Gebären und Bemuttern, seien die Frauen nicht tauglich, sagten damals die Männer.
+Ich weiss nur, dass ich froh bin, dass die junge Frau mit dem Regenbogen in ihrer Insta-Bio ihre Stimme erheben wird.
+Ich kann nicht voraussetzen, dass sie mit 93 ihre Mentalität wechselt, aber ich erwarte von der jungen Generation, dass sie für die Rechte der Frauen kämpft.</t>
+  </si>
+  <si>
+    <t>Arbeitsmarkt: Ausländische Namen werden aussortiert</t>
+  </si>
+  <si>
+    <t>Von Heimarbeit bis zu Videokonferenzen: Über Nacht wurden neue Arbeitsformen plötzlich Standard. Nun muss die Politik nachziehen. Katja Gentinetta.</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/arbeitsmarkt-auslaendische-namen-werden-aussortiert-ld.1599225</t>
+  </si>
+  <si>
+    <t>Diskriminierung auf dem Arbeitsmarkt: Ausländische Namen werden aussortiert Ausländer haben schlechtere Chancen auf einen Job – selbst wenn sie eine gleichwertige Qualifikation mitbringen.
+Wer erhält auf dem Stellenmarkt den Vorzug?
+Bei identischen Dossiers ist es die Bewerberin mit dem schweizerischen Namen.
+Welches Handicap ein ausländisch klingender Name bei der Stellensuche bedeutet, weiss Përparim Avdili aus eigener Erfahrung.
+«In meiner Jugendzeit gab es eine Zweiklassengesellschaft: Schüler mit einem Schweizer Pass kamen leichter zur Lehrstelle – unabhängig von den Noten.</t>
+  </si>
+  <si>
+    <t>Präsident der Schweizer Börse: «Wir sind jetzt die Nummer 3»</t>
+  </si>
+  <si>
+    <t>NZZ am Sonntag</t>
+  </si>
+  <si>
+    <t>Entscheidend für die Zukunft der Schweiz ist zuerst einmal das Abkommen selbst. Katja Gentinetta. Die berühmte Glocke an der Wall Street kommt seltener zum ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/praesident-der-schweizer-boerse-wir-sind-jetzt-die-nummer-3-ld.1598030</t>
+  </si>
+  <si>
+    <t>Interview Präsident der Schweizer Börse: «Wir sind jetzt die Nummer 3 in Europa» Thomas Wellauer ist Präsident von SIX, welche die Börse in der Schweiz und Spanien betreibt.
+Er spricht über die Expansion seiner Firma und die Gefahr einer Spaltung der Wirtschaft.
+Thomas Wellauer vor dem Hauptsitz der SIX.
+(Zürich, 19.
+Januar 2020) Niklaus SpoerriNZZ am Sonntag: Schweizer Aktien können schon bald wieder in London gehandelt werden, weil die Briten nach ihrem Ausscheiden aus der EU die Gleichwertigkeit der Schweizer Börsengesetze anerkennen.</t>
+  </si>
+  <si>
+    <t>Eine Erwerbsausfallversicherung für Selbständige ist absurd</t>
+  </si>
+  <si>
+    <t>Eine solches Konstrukt wäre im Grunde nichts anderes als eine «Marktausfallversicherung». Katja Gentinetta 06.02.2021, 12.45 Uhr. Hören. Merken. Teilen ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/eine-erwerbsausfallversicherung-fuer-selbstaendige-ist-absurd-ld.1600405</t>
+  </si>
+  <si>
+    <t>Meinung Eine Erwerbsausfallversicherung für Selbständige zu propagieren, ist absurd Wer sich bewusst für diesen Weg entscheidet, muss eine solche Absicherung als Eingriff in die Unabhängigkeit verstehen.
+Eine solches Konstrukt wäre im Grunde nichts anderes als eine «Marktausfallversicherung».
+Aber der Markt zeigt mit ziemlich hoher Treffsicherheit, wer mit dem eigenen Geschäft erfolgreich agiert und wer nicht.
+Diesen Satz verdanke ich meiner Freundin, die sich ein Jahr vor mir selbständig machte.
+Er enthält alles, was zur Selbständigkeit gehört: die Last der Akquise, der Administration, der Unsicherheit und des Risikos, aber auch die Lust am Ausprobieren, Erkunden, Versuchen und vor allem daran, seiner eigenen Idee zu folgen.</t>
+  </si>
+  <si>
+    <t>Souveränität ist wichtig. Aber wozu?</t>
+  </si>
+  <si>
+    <t>Der Strom an günstigen Waren aus Tieflohnländern schafft bei den Käufern Wohlstand, aber auch Abhängigkeiten. Katja Gentinetta ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/meinungen/souveraenitaet-ist-wichtig-aber-wozu-ld.1601684</t>
+  </si>
+  <si>
+    <t>Meinung Souveränität ist wichtig.
+Die Gegner des EU-Rahmenabkommens befürchten, es zerstöre die Souveränität der Schweiz.
+Ein Vertragsabschluss wäre eher Ausdruck dieser Souveränität.
+Livia Leu versucht als Chefunterhändlerin der Schweiz beim Rahmenabkommen mit der EU noch etwas herauszuholen.
+KeystoneDer Streit über das Rahmenabkommen zwischen der Schweiz und der EU ist zur asymmetrischen Debatte geworden; die Gegner des Abkommens melden sich lauthals zu Wort, während die Befürworter auf die verlangten Präzisierungen in den Bereichen Lohnschutz, Unionsbürgerrichtlinie und Beihilfen verweisen und sich vorläufig kaum aus der Deckung wagen.</t>
+  </si>
+  <si>
+    <t>Das «Burkaverbot» und die Anliegen des Feminismus</t>
+  </si>
+  <si>
+    <t>NZZ</t>
+  </si>
+  <si>
+    <t>Die Tatsache aber, dass es selbst feministische Gegnerinnen dieses Verbots, das eigentlich der Burka gilt, gibt, muss uns zu denken geben. Katja Gentinetta 40 ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/meinung/das-burkaverbot-und-die-ins-gegenteil-verkehrten-anliegen-des-feminismus-ld.1601230</t>
+  </si>
+  <si>
+    <t>Gastkommentar Das «Burkaverbot» und die ins Gegenteil verkehrten Anliegen des Feminismus Dass wir ausgerechnet zum 50.
+Der Kampf der Frauen gegen ihre Unterordnung und Diskriminierung war notwendig und in jeder Hinsicht gerechtfertigt und hat ausserdem den Kampf gegen die Rassendiskriminierung befruchtet.
+Die Frauen aber richteten ihren Blick bald auch auf die Familie: Wie konnte es sein, dass der liberale Staat zwar Freiheit propagierte, aber die Selbstbestimmung der Frau innerhalb der Familie zur Privatsache erklärte?
+Der Liberalismus, so ihre Feststellung, schütze zwar die Familie vor dem Eingriff des Staates, nicht aber die Frauen vor der Fremdbestimmung durch den Mann.
+Ihren Kampf um die Freiheit auf diese Weise zu unterlaufen, bedeutet, die Anliegen des Feminismus in ihr Gegenteil zu verkehren, zu pervertieren und zu verraten.</t>
+  </si>
+  <si>
+    <t>Netto null: Bill Gates und das Handbuch zum Ziel</t>
+  </si>
+  <si>
+    <t>... Seiten: von jeden Einzelnen, von der Politik, den Märkten und der Technologie. Gates zeigt auf, wie es gehen könnte. Katja Gentinetta 20.02.2021, 12.45 Uhr.</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/netto-null-bill-gates-und-das-handbuch-zum-ziel-ld.1602881</t>
+  </si>
+  <si>
+    <t>Meinung Netto null: Das Handbuch von Bill Gates zum alles entscheidenden Ziel Das Klimaproblem ist riesig und komplex.
+Es anzugehen, erfordert Effort von allen Seiten: von jeden Einzelnen, von der Politik, den Märkten und der Technologie.
+So wie die Industrie in sicherere Autos investiert, müsste das auch in der Atomkraft geschehen.
+Bill Gates geht voran und investiert massiv in die entsprechende Forschung: Sollte man auch das Atomkraftwerk in Gösgen bei Olten weiterbetreiben?
+René Ruis / KeystoneEin Handbuch bin ich auch – für Bauherren, zum Beispiel.</t>
+  </si>
+  <si>
+    <t>Debatte zum Burkaverbot: Schwarz-Weiss-Argumente zu ...</t>
+  </si>
+  <si>
+    <t>MEDIENWOCHE</t>
+  </si>
+  <si>
+    <t>Bemerkenswert ist auch ein Beitrag der Politphilosophin Katja Gentinetta in der «Neuen Zürcher Zeitung», in dem sie erklärt, wie und warum Feministinnen, die ...</t>
+  </si>
+  <si>
+    <t>https://medienwoche.ch/2021/02/26/debatte-zum-burkaverbot-schwarz-weiss-argumente-zu-einer-frage-mit-grautoenen/</t>
+  </si>
+  <si>
+    <t>von Marko Ković Debatte zum Burkaverbot: Schwarz-Weiss-Argumente zu einer Frage mit Grautönen VorlesenIn der Debatte zum Burkaverbot liefern sich Befürworter*innen und Gegner*innen der Initiative ein argumentatives Gefecht, das oft an der Sache vorbei schiesst.
+Ein Thema also, bei dem es angesichts seiner Tragweite wichtig ist, gute Gründe für ein Ja oder Nein zu finden.
+Angesichts dieses Plädoyers für die Rechte der Frau mutet die scharfe Kritik am indirekten Gegenvorschlag zur Initiative aber wenig schlüssig an.
+Das ist eine Anpassung, die die Initianten angesichts ihres Plädoyers für Gleichstellung eigentlich begrüssen müssten.
+Doch das Komitee kritisiert ausgerechnet diese Anpassung scharf: «Auf neue Einnahmequellen spekulierend, dürfte sich die Sozialindustrie bereits genüsslich die Hände reiben».</t>
+  </si>
+  <si>
+    <t>Doppelter Verdienst dank Kurzarbeit während der Corona-Krise</t>
+  </si>
+  <si>
+    <t>... definieren, die Unternehmen dazu zwingen, im Interesse der Gesellschaft zu handeln. Würde man meinen. Doch ganz so einfach ist es nicht. Katja Gentinetta ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/schweiz/doppelter-verdienst-dank-kurzarbeit-waehrend-der-corona-krise-ld.1604148</t>
+  </si>
+  <si>
+    <t>Doppelter Verdienst dank Kurzarbeit Angestellte in Kurzarbeit dürfen eine zweite Stelle annehmen.
+Gaetan Bally / KeystoneAngestellte aus der Reise-, der Event- und der Tourismus-Branche sind derzeit kaum beschäftigt.
+Dank Kurzarbeitsentschädigung erhalten die meisten dennoch 80 Prozent ihres Lohnes.
+Einige haben sogar das Glück, eine zweite Stelle annehmen und einem zusätzlichen Verdienst nachgehen zu können.
+Etwa bei Onlinehändlern, deren Geschäft floriert und die zusätzliches Personal benötigen.</t>
+  </si>
+  <si>
+    <t>Der andere Blick: Weshalb Burka und Nikab verboten gehören</t>
+  </si>
+  <si>
+    <t>Katja Gentinetta 15.02.2021. NZZ abonnieren · Kontakt · AGB und Datenschutz · Impressum. Copyright © Neue Zürcher Zeitung AG. Alle Rechte vorbehalten.</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/meinung/der-andere-blick-weshalb-burka-und-nikab-verboten-gehoeren-ld.1602514</t>
+  </si>
+  <si>
+    <t>Der andere Blick Burka und Nikab sind die Wahrzeichen einer totalitären Ideologie – deshalb gehören sie verboten Der Islamismus ist keine abstrakte, sondern eine reale Gefahr.
+Es vergeht kaum ein Tag ohne Klage über den Niedergang der liberalen Demokratie und den Vormarsch autoritärer Mächte.
+Schlimmer noch, Teile der politischen Klasse, der Medien und der Wissenschaft haben sich längst von der Wahrnehmung der Mehrheitsgesellschaft abgekoppelt, die mit Angst und Unverständnis auf die schleichenden Veränderungen reagiert.
+So kann in der Schweiz die Volksinitiative für ein Verbot von Burka, Nikab und anderen Formen der Verhüllung auf eine Mehrheit rechnen.
+Das erfordert ein Mindestmass an Kontrolle über die Ausbildung der Prediger und die Finanzierung der Moscheen.</t>
+  </si>
+  <si>
+    <t>Rückkehr der Ideologien – in Polen, Russland und Weissrussland</t>
+  </si>
+  <si>
+    <t>100 Jahre Einsamkeit – Russland seit 1917: NZZ Chefredaktor Eric Gujer und die Politikphilosophin Katja Gentinetta im Gespräch mit dem St. Galler Slawisten ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/meinung/rueckkehr-der-ideologien-in-polen-russland-und-weissrussland-ld.1601024</t>
+  </si>
+  <si>
+    <t>Gastkommentar Rückkehr der Ideologien – in Polen, Russland und Weissrussland ist der beinharte Konservativismus und nicht der biegsame Populismus die entscheidende politische Kraft Die konservative Botschaft der autoritären Regime im Osten Europas ist von verführerischer Einfachheit: ein starker Herrscher, ein starker Staat, eine starke Familie.
+In Russland zerstört der Kreml den nationalen Schulterschluss, der die öffentliche Stimmung nach der Annexion der Krim prägte, wegen einer Youtube-Herausforderung durch den wenig populären Oppositionspolitiker Alexei Nawalny.
+Huntington identifizierte neun verschiedene Zivilisationen, darunter die westliche und die orthodoxe.
+Die entscheidenden Merkmale in der von Russland dominierten orthodoxen Kultur erblickte Huntington im Fehlen der Kulturtraditionen von klassischer Antike, Renaissance und Aufklärung sowie in der kontinuierlichen imperialen Ausdehnung auf dem eurasischen Kontinent.
+Der Einfluss von Huntington lässt sich deutlich etwa in der Sozialdoktrin der russisch-orthodoxen Kirche aus dem Jahr 2000 nachweisen.</t>
+  </si>
+  <si>
+    <t>Geld &amp; Geist: Diversität und Inklusion in Unternehmen</t>
+  </si>
+  <si>
+    <t>... dass keine Veränderung passiert, wenn nicht Programme und Prozesse eingeführt und mit messbaren Zielen verknüpft werden. Katja Gentinetta 06.03.2021, ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/geld-geist-diversitaet-und-inklusion-in-unternehmen-ld.1605299</t>
+  </si>
+  <si>
+    <t>Warum sich Unternehmen mit Diversität und Inklusion so schwertun Aus den letzten Jahren und Jahrzehnten wissen wir sehr wohl, dass keine Veränderung passiert, wenn nicht Programme und Prozesse eingeführt und mit messbaren Zielen verknüpft werden.
+Diversität gibt es meist nur auf Firmenbroschüren.
+Personalverantwortliche, so stelle ich mir vor, sind diese Tage nicht zu beneiden.
+Nehmen wir die Diskussion der letzten Wochen: Muss nun eine voll verschleierte Frau angestellt werden?
+Und zwar nicht etwa, weil es nicht verboten ist, sich so in der Öffentlichkeit zu bewegen, sondern weil es umgekehrt ein Zeichen von Diversität wäre, der man sich als Unternehmen ja selbstverständlich verpflichtet?</t>
+  </si>
+  <si>
+    <t>Wegen Burka und Nikab: Schweizer stimmen über ...</t>
+  </si>
+  <si>
+    <t>Katholisch.de</t>
+  </si>
+  <si>
+    <t>... reflexartig gewesen wäre, hat sich der feministische Diskurs also inzwischen radikalisiert, wie die Schweizer Politikphilosophin Katja Gentinetta bemerkt.</t>
+  </si>
+  <si>
+    <t>https://www.katholisch.de/artikel/28983-wegen-burka-und-nikab-schweizer-stimmen-ueber-verhuellungsverbot-ab</t>
+  </si>
+  <si>
+    <t>Volksseele und Verfassungsbedenken im Widerstreit Wegen Burka und Nikab: Schweizer stimmen über Verhüllungsverbot ab Per Referendum wollen rechtskonservative Schweizer Burka und Nikab in der Öffentlichkeit verbieten.
+Jahrestag des Frauenwahlrechts und während das ganze Land pandemiebedingt mit verhülltem Gesicht umherläuft, stimmen die Schweizer am Sonntag über ein Verbot der islamischen Burka respektive des Nikab im öffentlichen Raum ab.
+Das Schweizer Parlament hat sich ebenso klar gegen die Abstimmungsvorlage positioniert wie die Regierung, der Bundesrat.
+Wer Frauen von der Burka "befreien" will, gilt rasch als muslimfeindlich.
+Wo früher ein feministisches Nein zur Burka quasi reflexartig gewesen wäre, hat sich der feministische Diskurs also inzwischen radikalisiert, wie die Schweizer Politikphilosophin Katja Gentinetta bemerkt.</t>
+  </si>
+  <si>
+    <t>Individualbesteuerung: CVP-Frauen liebäugeln mit Initiative</t>
+  </si>
+  <si>
+    <t>Trotzdem hat sie eine sehr grundsätzliche Meinung darüber, wie sich der Staat in familienspezifisches Verhalten einmischen sollte. Katja Gentinetta ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/schweiz/individualbesteuerung-cvp-frauen-liebaeugeln-mit-initiative-ld.1605313</t>
+  </si>
+  <si>
+    <t>Mitte-Chef Pfister muss um seine Frauen fürchten Die CVP-Frauen liebäugeln damit, die FDP-Initiative für Individualbesteuerung zu unterstützen.
+Es wäre für die neue Mitte ein Rückschlag in einem alten Kernthema.
+Babette Sigg, Präsidentin der CVP-Frauen, ist seit langem eine Befürworterin der Individualbesteuerung.
+KeystoneAm Montag geht es los: Am Internationalen Tag der Frau lancieren die FDP-Frauen ihre erste Volksinitiative, mit der sie die Einführung der Individualbesteuerung fordern.
+Stattdessen soll jeder Partner seinen eigenen Lohn versteuern, was vor allem den Zweitverdienst steuerlich attraktiver macht.</t>
+  </si>
+  <si>
+    <t>Schweiz stimmt über Verhüllungs-Initiative ab</t>
+  </si>
+  <si>
+    <t>derStandard.de</t>
+  </si>
+  <si>
+    <t>... Anliegen des Feminismus" überschreibt die schweizer Politikphilosophin, Publizistin und Universitätsdozentin Katja Gentinetta ihren Beitrag in der NZZ.</t>
+  </si>
+  <si>
+    <t>https://www.derstandard.de/story/2000124582115/schweiz-stimmt-ueber-verhuellungs-initiative-ab</t>
+  </si>
+  <si>
+    <t>Befürworter*innen: "Freie Menschen zeigen ihr Gesicht" – Zwei Kantone haben bereits ein VerhüllungsverbotBern – In einer Zeit, in der Gesichtsmasken zum Alltag gehören, stimmen die Schweizer*innen am kommenden Sonntag über ein Verhüllungsverbot ab.
+Im Fokus der auch als "Burka-Initiative" bekannten Vorlage steht, dass sich niemand im öffentlichen Raum verhüllen darf.
+Hier sollten Ihre Optionen angezeigt werden, um zu entscheiden, wie Sie DER STANDARD nutzen wollen.
+Bitte deaktivieren Sie sämtliche Hard- und Software-Komponenten die, in der Lage sind Teile unserer Website zu blockieren.
+Browser-AddOns wie Adblocker oder auch netzwerktechnische Filter.</t>
+  </si>
+  <si>
+    <t>Geld &amp; Geist: Machterhaltung als System</t>
+  </si>
+  <si>
+    <t>Umso klarer müssen wir in der Verteidigung unserer freiheitlichen und rechtsstaatlichen Grundsätze sein – mindestens für uns. Katja Gentinetta, politische ...</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/geld-geist-machterhaltung-als-system-ld.1607652</t>
+  </si>
+  <si>
+    <t>Meinung Machterhaltung als System Die an das Publikum im eigenen Land gerichtete Propaganda Chinas ist auch ein Weckruf für den Westen.
+Die Führung in Peking ist darauf angewiesen, nicht nur erfolgreich zu sein, sondern auch positiv wahrgenommen zu werden.
+Sitzung des Nationalen Volkskongresses: Wachstum sei inChina lediglich dazu da, die Macht der Partei zu sichern, sagtder Ökonom Branko Milanovic.
+ImagoChina ist auf dem Vormarsch: technologisch, wirtschaftlich und politisch; und es macht seinen Einfluss überall auf der Welt zunehmend geltend.
+Erstaunlich ist vielmehr, dass es den Ausbruch der Corona-Pandemie brauchte, um auch eine gewisse Skepsis gegenüber dieser aufsteigenden Macht zu entwickeln.</t>
+  </si>
+  <si>
+    <t>Ein Buch, das mein Leben veränderte – mit Katja Gentinetta</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>Heute mit Philosophin Katja Gentinetta. Platon, Aristoteles, Hobbes, Rousseau und viele mehr: Man kennt sie, die Herren der Philosophie.</t>
+  </si>
+  <si>
+    <t>https://www.annabelle.ch/kultur/musik/ein-buch-das-mein-leben-veraenderte-mit-katja-gentinetta/</t>
+  </si>
+  <si>
+    <t>Platon, Aristoteles, Hobbes, Rousseau und viele mehr: Man kennt sie, die Herren der Philosophie.
+Nicht so Hannah Arendt, die auch zu den ganz Grossen gehört, aber eine Frau war.
+Sie wurde zwar berühmt, hat in New York gelehrt, enorm viel publiziert und referiert und immer wieder öffentlich Stellung bezogen.
+Das ist schade – aber kein Grund, sie nicht zu lesen.
+Und zwar unabhängig davon, ob ich die jeweiligen Anliegen persönlich nachvollziehen kann oder nicht.</t>
+  </si>
+  <si>
+    <t>Zwangsarbeit im Modegeschäft: Die Stunde der Wahrheit</t>
+  </si>
+  <si>
+    <t>Wir sollten es mit Kleidern halten wie mit Nahrungsmitteln: Schauen, woher sie kommen und wie sie produziert werden. Katja Gentinetta 03.04.2021, 03.33 Uhr.</t>
+  </si>
+  <si>
+    <t>https://nzzas.nzz.ch/wirtschaft/zwangsarbeit-im-modegeschaeft-die-stunde-der-wahrheit-ld.1609884</t>
+  </si>
+  <si>
+    <t>Meinung Im Modegeschäft ist die Stunde der Wahrheit gekommen Wir sollten es mit Kleidern halten wie mit Nahrungsmitteln: Schauen, woher sie kommen und wie sie produziert werden.
+Natürliche Farbstoffe ersetzen die giftigen Färbprozesse.
+Wer immer noch an einer «Systemkonkurrenz» zwischen China und dem Westen zweifelt, dürfte spätestens dieser Tage eines Besseren belehrt worden sein.
+Bemüht sich der Westen um Nachhaltigkeit, setzt China auf das Prinzip der Nichteinmischung.
+Wo wir von Unternehmen die Einhaltung von Sozial- und Umweltstandards verlangen, lautet die Botschaft des chinesischen Boykotts zwar implizit, aber simpel: Wenn ihr mit uns Geschäfte machen wollt, müsst ihr unsere Zwangsarbeit akzeptieren.</t>
+  </si>
+  <si>
+    <t>Nachdenken über die Freiheit: Der "Schweizer Monat" wird 100</t>
+  </si>
+  <si>
+    <t>Da spricht die Philosophin Katja Gentinetta mit dem Juristen Max Imboden über die Gefahren des Totalitarismus, Christoph Blocher mit dem früheren «Vorort»- ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/feuilleton/nachdenken-ueber-die-freiheit-der-schweizer-monat-wird-100-ld.1611768</t>
+  </si>
+  <si>
+    <t>Nachdenken über die Freiheit: Vor hundert Jahren wurde der «Schweizer Monat» gegründet 1921 erschien die erste Nummer des «Schweizer Monats».
+Rdb / Ullstein BildMit der Freiheit ist es manchmal wie mit der Zeit.
+Man nimmt sie nicht wahr, wenn man sie hat.
+Und beginnt erst über sie nachzudenken, wenn man sie zu verlieren droht, vielleicht schon verloren hat.
+Oder wenn sich die Freiheit des Einzelnen nicht mit der Freiheit der ganzen Gesellschaft vereinbaren lässt.</t>
+  </si>
+  <si>
+    <t>Kultur - Stapferhaus Lenzburg: Katja Gentinetta ist die neue Stiftungsrats-Präsidentin</t>
+  </si>
+  <si>
+    <t>Stapferhaus Lenzburg: Katja Gentinetta ist die neue Stiftungsrats-Präsidentin. Die ehemalige SRF-Moderatorin übernimmt das Präsidium auf den Jahresanfang ...</t>
+  </si>
+  <si>
+    <t>https://www.aargauerzeitung.ch/aargau/kanton-aargau/kultur-stapferhaus-lenzburg-katja-gentinetta-ist-die-neue-stiftungsrats-praesidentin-ld.2126077</t>
+  </si>
+  <si>
+    <t>Kultur Stapferhaus Lenzburg: Katja Gentinetta ist die neue Stiftungsrats-Präsidentin Die ehemalige SRF-Moderatorin übernimmt das Präsidium auf den Jahresanfang 2022.
+Katja Gentinetta, neue Stiftungsratspräsidentin Stapferhaus Lenzburg Zvg / Benjamin Hofer(az) Der Regierungsrat hat als bedeutender Mitstifter Katja Gentinetta zur Präsidentin des Stiftungsrats der Stiftung Stapferhaus Lenzburg gewählt.
+Während je vier Jahren moderierte sie die Sendungen «Sternstunde Philosophie» und «NZZ Standpunkte» des Schweizer Fernsehens.
+Katja Gentinetta ist im Wallis geboren und aufgewachsen und wohnt mit ihrem Mann seit vielen Jahren in Lenzburg.
+Der Stiftungsrat des Stapferhauses Lenzburg trägt die Verantwortung für die strategische Ausrichtung der Kulturinstitution und die Sicherstellung der Finanzierung.</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,6 +515,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -170,24 +534,42 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +643,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +695,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,21 +888,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -496,97 +919,569 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44205</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="D3" s="5">
+        <v>44205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="5">
+        <v>44198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44233</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44240</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44242</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44253</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44254</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44245</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44253</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44261</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44261</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44299.469733796293</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44299.469398148147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44299.469398148147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44299.469398148147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44301.468831018516</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>